--- a/Practica 7/Libro1.xlsx
+++ b/Practica 7/Libro1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eps\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\CIREL\Practica 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,6 +202,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -237,6 +254,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1387,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>18120</v>
+        <v>16120</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>

--- a/Practica 7/Libro1.xlsx
+++ b/Practica 7/Libro1.xlsx
@@ -124,6 +124,2388 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Ganancia</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> ejercicio 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$2:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>9.8830918803688554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6574716721750757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6913780806839753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6042248342321201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3612666992552311</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9102533562829969</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6368717588954507</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6707781674043507</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9843604534036331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92209574492077406</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.35457533920863205</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.6799331273040163</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.8739499846542547</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-11.056839373155615</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-12.39577516576788</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-13.979400086720375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-15.917600346881503</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-15.917600346881503</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-17.07743928643524</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-18.131566296755299</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-22.853350071374628</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-24.436974992327126</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-27.95880017344075</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-30.457574905606752</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-31.70053304058364</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-33.555614105321617</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-34.894549897933878</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-37.077439286435244</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-39.1721462968355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2699-4DF6-9F51-B120EE65F2A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="284791824"/>
+        <c:axId val="284793072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="284791824"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> (Hz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="284793072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="284793072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Ganancia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="284791824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Fase</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> ejercicio 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$F$2:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-28.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-38.88000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-51.840000000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-61.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-60.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-65.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-63.360000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-68.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-79.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-82.080000000000013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-86.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-86.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-86.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-80.639999999999986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-80.64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-84.240000000000009</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-82.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-86.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-86.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-87.84</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-86.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-88.559999999999988</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-88.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-89.28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-90.72</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-93.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0D5-4B64-91C1-C2A05A2EC840}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="284632304"/>
+        <c:axId val="289058640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="284632304"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Frecuencia (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289058640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="289058640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Fase</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> (º)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="284632304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,8 +2807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,11 +3359,11 @@
         <v>0.16</v>
       </c>
       <c r="E18" s="1">
-        <v>3.0000000000000001E-5</v>
+        <v>3.1999999999999999E-5</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="1"/>
-        <v>-75.600000000000009</v>
+        <v>-80.639999999999986</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="2"/>
@@ -1410,5 +3792,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Practica 7/Libro1.xlsx
+++ b/Practica 7/Libro1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\CIREL\Practica 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eps\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -171,6 +171,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -426,7 +427,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2699-4DF6-9F51-B120EE65F2A0}"/>
             </c:ext>
@@ -440,11 +441,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284791824"/>
-        <c:axId val="284793072"/>
+        <c:axId val="120104048"/>
+        <c:axId val="120104608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="284791824"/>
+        <c:axId val="120104048"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -497,6 +498,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -563,12 +565,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284793072"/>
+        <c:crossAx val="120104608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284793072"/>
+        <c:axId val="120104608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -614,6 +616,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -680,7 +683,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284791824"/>
+        <c:crossAx val="120104048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -730,7 +733,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -773,6 +776,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1028,7 +1032,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B0D5-4B64-91C1-C2A05A2EC840}"/>
             </c:ext>
@@ -1042,11 +1046,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284632304"/>
-        <c:axId val="289058640"/>
+        <c:axId val="81889056"/>
+        <c:axId val="81888496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="284632304"/>
+        <c:axId val="81889056"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1094,6 +1098,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1160,12 +1165,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289058640"/>
+        <c:crossAx val="81888496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="289058640"/>
+        <c:axId val="81888496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1216,6 +1221,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1282,7 +1288,1220 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284632304"/>
+        <c:crossAx val="81889056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Fase</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> ejercicio 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desfase (º)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$J$2:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$O$2:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>89.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.839999999999989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.639999999999986</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.872</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73.44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.08</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.68</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.888000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.847999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.52</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.4799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="31956544"/>
+        <c:axId val="234383312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="31956544"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> (Hz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="234383312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="234383312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Fase</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> (º)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="31956544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Ganancia</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> ejercicio 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$J$2:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$P$2:$P$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-19.659333214024393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14.516843014726405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-11.181818358695645</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.8739499846542547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.3751752524882557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.0362394598759908</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.8764005203222562</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8533500713746314</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.1581079461903916</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.1103465569966273</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7504144167292615</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.1926033485179754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.4582400594021312</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.1647993062369917</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5626958805757774</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.9431606268443851</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.187849755184617</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.4258342211787713</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5424250943932485</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.993741652368076</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.993741652368076</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.6574716721750757</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.2994669594163604</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.0049603666832567</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.84512142712952</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.9102533562829969</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.0823996531184958</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.1672498419049928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="254638768"/>
+        <c:axId val="258596928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="254638768"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Frecuencia (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258596928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="258596928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Ganancia (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="254638768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1411,6 +2630,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1928,6 +3227,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2500,6 +4831,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2584,23 +4975,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2636,23 +5010,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2807,8 +5164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="G34" workbookViewId="0">
+      <selection activeCell="P2" activeCellId="1" sqref="J2:J30 P2:P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2893,6 +5250,27 @@
       <c r="J2" s="1">
         <v>80</v>
       </c>
+      <c r="K2">
+        <v>0.1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f>K2</f>
+        <v>0.1</v>
+      </c>
+      <c r="N2">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="O2">
+        <f>360*J2*N2</f>
+        <v>89.28</v>
+      </c>
+      <c r="P2">
+        <f>20*LOG10(K2)</f>
+        <v>-20</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2923,6 +5301,27 @@
       <c r="J3" s="1">
         <v>100</v>
       </c>
+      <c r="K3">
+        <v>0.104</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M30" si="3">K3</f>
+        <v>0.104</v>
+      </c>
+      <c r="N3">
+        <v>2.4399999999999999E-3</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O30" si="4">360*J3*N3</f>
+        <v>87.839999999999989</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P30" si="5">20*LOG10(K3)</f>
+        <v>-19.659333214024393</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -2953,6 +5352,27 @@
       <c r="J4" s="1">
         <v>200</v>
       </c>
+      <c r="K4">
+        <v>0.188</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>0.188</v>
+      </c>
+      <c r="N4">
+        <v>1.24E-3</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="4"/>
+        <v>89.28</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="5"/>
+        <v>-14.516843014726405</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2983,6 +5403,27 @@
       <c r="J5" s="1">
         <v>300</v>
       </c>
+      <c r="K5">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="N5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>86.4</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="5"/>
+        <v>-11.181818358695645</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3013,6 +5454,27 @@
       <c r="J6" s="1">
         <v>400</v>
       </c>
+      <c r="K6">
+        <v>0.36</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>0.36</v>
+      </c>
+      <c r="N6">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>-8.8739499846542547</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -3043,6 +5505,27 @@
       <c r="J7" s="1">
         <v>500</v>
       </c>
+      <c r="K7">
+        <v>0.48</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="N7">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>82.8</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>-6.3751752524882557</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -3073,6 +5556,27 @@
       <c r="J8" s="1">
         <v>600</v>
       </c>
+      <c r="K8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N8">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>82.08</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>-5.0362394598759908</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -3103,6 +5607,27 @@
       <c r="J9" s="1">
         <v>700</v>
       </c>
+      <c r="K9">
+        <v>0.64</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>0.64</v>
+      </c>
+      <c r="N9">
+        <v>3.3E-4</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>83.16</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>-3.8764005203222562</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -3133,6 +5658,27 @@
       <c r="J10" s="1">
         <v>800</v>
       </c>
+      <c r="K10">
+        <v>0.72</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>0.72</v>
+      </c>
+      <c r="N10">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>80.639999999999986</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>-2.8533500713746314</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -3163,6 +5709,27 @@
       <c r="J11" s="1">
         <v>900</v>
       </c>
+      <c r="K11">
+        <v>0.78</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>0.78</v>
+      </c>
+      <c r="N11">
+        <v>2.2800000000000001E-4</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>73.872</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>-2.1581079461903916</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -3193,6 +5760,27 @@
       <c r="J12" s="1">
         <v>1000</v>
       </c>
+      <c r="K12">
+        <v>0.88</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>0.88</v>
+      </c>
+      <c r="N12">
+        <v>2.04E-4</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>73.44</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>-1.1103465569966273</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -3223,6 +5811,27 @@
       <c r="J13" s="1">
         <v>2000</v>
       </c>
+      <c r="K13">
+        <v>1.54</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>1.54</v>
+      </c>
+      <c r="N13">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>64.8</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>3.7504144167292615</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -3253,6 +5862,27 @@
       <c r="J14" s="1">
         <v>3000</v>
       </c>
+      <c r="K14">
+        <v>2.04</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>2.04</v>
+      </c>
+      <c r="N14">
+        <v>5.1999999999999997E-5</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>56.16</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>6.1926033485179754</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -3283,6 +5913,27 @@
       <c r="J15" s="1">
         <v>4000</v>
       </c>
+      <c r="K15">
+        <v>2.36</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>2.36</v>
+      </c>
+      <c r="N15">
+        <v>2.9E-5</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>41.76</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>7.4582400594021312</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -3313,8 +5964,29 @@
       <c r="J16" s="1">
         <v>5000</v>
       </c>
+      <c r="K16">
+        <v>2.56</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>2.56</v>
+      </c>
+      <c r="N16">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>8.1647993062369917</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>6000</v>
       </c>
@@ -3343,8 +6015,29 @@
       <c r="J17" s="1">
         <v>6000</v>
       </c>
+      <c r="K17">
+        <v>2.68</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>2.68</v>
+      </c>
+      <c r="N17">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>28.08</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>8.5626958805757774</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7000</v>
       </c>
@@ -3373,8 +6066,29 @@
       <c r="J18" s="1">
         <v>7000</v>
       </c>
+      <c r="K18">
+        <v>2.8</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>2.8</v>
+      </c>
+      <c r="N18">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>22.68</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>8.9431606268443851</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8000</v>
       </c>
@@ -3403,8 +6117,29 @@
       <c r="J19" s="1">
         <v>8000</v>
       </c>
+      <c r="K19">
+        <v>2.88</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>2.88</v>
+      </c>
+      <c r="N19">
+        <v>7.6000000000000001E-6</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>21.888000000000002</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>9.187849755184617</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>9000</v>
       </c>
@@ -3433,8 +6168,29 @@
       <c r="J20" s="1">
         <v>9000</v>
       </c>
+      <c r="K20">
+        <v>2.96</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>2.96</v>
+      </c>
+      <c r="N20">
+        <v>5.2000000000000002E-6</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>16.847999999999999</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>9.4258342211787713</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>10000</v>
       </c>
@@ -3463,8 +6219,29 @@
       <c r="J21" s="1">
         <v>10000</v>
       </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>3.1999999999999999E-6</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>11.52</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>9.5424250943932485</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20000</v>
       </c>
@@ -3493,8 +6270,29 @@
       <c r="J22" s="1">
         <v>20000</v>
       </c>
+      <c r="K22">
+        <v>3.16</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>3.16</v>
+      </c>
+      <c r="N22">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="5"/>
+        <v>9.993741652368076</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30000</v>
       </c>
@@ -3523,8 +6321,29 @@
       <c r="J23" s="1">
         <v>30000</v>
       </c>
+      <c r="K23">
+        <v>3.16</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>3.16</v>
+      </c>
+      <c r="N23">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>6.4799999999999995</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="5"/>
+        <v>9.993741652368076</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40000</v>
       </c>
@@ -3553,8 +6372,29 @@
       <c r="J24" s="1">
         <v>40000</v>
       </c>
+      <c r="K24">
+        <v>3.04</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>3.04</v>
+      </c>
+      <c r="N24">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="4"/>
+        <v>2.88</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="5"/>
+        <v>9.6574716721750757</v>
+      </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>50000</v>
       </c>
@@ -3582,8 +6422,29 @@
       <c r="J25" s="1">
         <v>50000</v>
       </c>
+      <c r="K25">
+        <v>2.6</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>2.6</v>
+      </c>
+      <c r="N25">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="5"/>
+        <v>8.2994669594163604</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>60000</v>
       </c>
@@ -3611,8 +6472,29 @@
       <c r="J26" s="1">
         <v>60000</v>
       </c>
+      <c r="K26">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="5"/>
+        <v>7.0049603666832567</v>
+      </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>70000</v>
       </c>
@@ -3640,8 +6522,29 @@
       <c r="J27" s="1">
         <v>70000</v>
       </c>
+      <c r="K27">
+        <v>1.96</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>1.96</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="5"/>
+        <v>5.84512142712952</v>
+      </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>80000</v>
       </c>
@@ -3669,8 +6572,29 @@
       <c r="J28" s="1">
         <v>80000</v>
       </c>
+      <c r="K28">
+        <v>1.76</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>1.76</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="5"/>
+        <v>4.9102533562829969</v>
+      </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>90000</v>
       </c>
@@ -3698,8 +6622,29 @@
       <c r="J29" s="1">
         <v>90000</v>
       </c>
+      <c r="K29">
+        <v>1.6</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="5"/>
+        <v>4.0823996531184958</v>
+      </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>100000</v>
       </c>
@@ -3728,10 +6673,25 @@
         <v>100000</v>
       </c>
       <c r="K30">
-        <v>0.57999999999999996</v>
+        <v>1.44</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>1.44</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="5"/>
+        <v>3.1672498419049928</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
